--- a/Opencart/opencart.xlsx
+++ b/Opencart/opencart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18BDAE-4862-4E1B-91E1-5B2F54B5AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433A16F-4709-493D-8726-19B4A38932B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="93">
   <si>
     <t>Status</t>
   </si>
@@ -151,6 +151,159 @@
   </si>
   <si>
     <t>EditAccount_001</t>
+  </si>
+  <si>
+    <t>Test edit account information of ecommerce website</t>
+  </si>
+  <si>
+    <t>Verify edit account name using valid data</t>
+  </si>
+  <si>
+    <t>previous loged in</t>
+  </si>
+  <si>
+    <t>click on "My Account" option</t>
+  </si>
+  <si>
+    <t>My account button appear</t>
+  </si>
+  <si>
+    <t>My account page should open</t>
+  </si>
+  <si>
+    <t>click on "Edit Account" button from the list in the right of the screen</t>
+  </si>
+  <si>
+    <t>Edit account page should appear</t>
+  </si>
+  <si>
+    <t>click on "First Name" textbox</t>
+  </si>
+  <si>
+    <t>Enter new user information</t>
+  </si>
+  <si>
+    <t>click on continue button</t>
+  </si>
+  <si>
+    <t>success message appear</t>
+  </si>
+  <si>
+    <t>Textbox should be clickable</t>
+  </si>
+  <si>
+    <t>Data should be entered</t>
+  </si>
+  <si>
+    <t>checkbox should be clicked</t>
+  </si>
+  <si>
+    <t>Test add address information in account of ecommerce website</t>
+  </si>
+  <si>
+    <t>AddAddress_001</t>
+  </si>
+  <si>
+    <t>Verify adding address information to the account using valid data</t>
+  </si>
+  <si>
+    <t>click on "Address Book" button from the list in the right of the screen</t>
+  </si>
+  <si>
+    <t>click on "New Address" button in the middle of the screen</t>
+  </si>
+  <si>
+    <t>Address Book page should appear</t>
+  </si>
+  <si>
+    <t>New address page should appear</t>
+  </si>
+  <si>
+    <t>address = faisal talbea</t>
+  </si>
+  <si>
+    <t>city = Giza</t>
+  </si>
+  <si>
+    <t>post code = 1234</t>
+  </si>
+  <si>
+    <t>country = Egypt</t>
+  </si>
+  <si>
+    <t>Region / State = Qina</t>
+  </si>
+  <si>
+    <t>Navigate to Home page</t>
+  </si>
+  <si>
+    <t>home page should open</t>
+  </si>
+  <si>
+    <t>Home page should open</t>
+  </si>
+  <si>
+    <t>Search_001</t>
+  </si>
+  <si>
+    <t>Test search of ecommerce website</t>
+  </si>
+  <si>
+    <t>Verify search using valid data</t>
+  </si>
+  <si>
+    <t>product = iphone</t>
+  </si>
+  <si>
+    <t>click on the search bar in the website header</t>
+  </si>
+  <si>
+    <t>search bar should be clickable</t>
+  </si>
+  <si>
+    <t>Enter product name</t>
+  </si>
+  <si>
+    <t>click on search button</t>
+  </si>
+  <si>
+    <t>product appear</t>
+  </si>
+  <si>
+    <t>Not as Expected</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Test currency change of ecommerce website</t>
+  </si>
+  <si>
+    <t>Verify currency change</t>
+  </si>
+  <si>
+    <t>click on the currency drop down list in the website header</t>
+  </si>
+  <si>
+    <t>Currency_001</t>
+  </si>
+  <si>
+    <t>choose the desired currency</t>
+  </si>
+  <si>
+    <t>dropdown list should be clickable</t>
+  </si>
+  <si>
+    <t>currency changed</t>
+  </si>
+  <si>
+    <t>AddToCart_001</t>
+  </si>
+  <si>
+    <t>Test add products to cart of ecommerce website</t>
+  </si>
+  <si>
+    <t>Verify logged user can add different products to the shopping cart</t>
   </si>
 </sst>
 </file>
@@ -211,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,12 +439,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -312,6 +509,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -358,6 +564,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,55 +872,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -710,96 +937,96 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -815,166 +1042,178 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="14" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -990,46 +1229,46 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
@@ -1046,62 +1285,62 @@
     </row>
     <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1117,149 +1356,155 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="14" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>6</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -1275,46 +1520,46 @@
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="12"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
@@ -1331,304 +1576,1778 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
+      <c r="G38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>2</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="6">
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>2</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
-        <v>2</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>3</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>4</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
+        <v>4</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>5</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="34"/>
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>6</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="B49" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="34"/>
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>6</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>2</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="6">
+        <v>2</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="6">
+        <v>3</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="6"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="6">
+        <v>4</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="6"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="6">
+        <v>5</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="6">
+        <v>6</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="6">
+        <v>7</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>1</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="15"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>2</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>3</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>4</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>5</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="34"/>
+      <c r="K70" s="33"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>6</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" s="34"/>
+      <c r="K71" s="33"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>6</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="15"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="15"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>1</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>2</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>2</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="15"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>3</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" s="14"/>
+      <c r="K85" s="15"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>4</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="14"/>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>1</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>2</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="29"/>
+      <c r="F95" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>1</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J97" s="14"/>
+      <c r="K97" s="15"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>2</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="15"/>
+      <c r="F98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="15"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>3</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J99" s="14"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="15"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="15"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>1</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="6">
+        <v>2</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="15"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>3</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="15"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>1</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E111" s="15"/>
+      <c r="F111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>2</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>3</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>4</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" s="14"/>
+      <c r="K114" s="15"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>5</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="33"/>
+      <c r="D115" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="33"/>
+      <c r="F115" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="34"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" s="34"/>
+      <c r="K115" s="33"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="6">
+        <v>6</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="33"/>
+      <c r="D116" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="34"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" s="34"/>
+      <c r="K116" s="33"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>6</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117" s="15"/>
+      <c r="F117" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J117" s="14"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:H42"/>
-    <mergeCell ref="I41:K42"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="G38:K38"/>
+  <mergeCells count="290">
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="I111:K111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:C110"/>
+    <mergeCell ref="D109:E110"/>
+    <mergeCell ref="F109:H110"/>
+    <mergeCell ref="I109:K110"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:K101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:K102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:C96"/>
+    <mergeCell ref="D95:E96"/>
+    <mergeCell ref="F95:H96"/>
+    <mergeCell ref="I95:K96"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="F88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:K89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="D81:E82"/>
+    <mergeCell ref="F81:H82"/>
+    <mergeCell ref="I81:K82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="I64:K65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="I26:K27"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:H15"/>
@@ -1649,37 +3368,72 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="I26:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
